--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Sema3g-Nrp2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Sema3g-Nrp2.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>9.629280666666666</v>
+        <v>7.538602</v>
       </c>
       <c r="H2">
-        <v>28.887842</v>
+        <v>22.615806</v>
       </c>
       <c r="I2">
-        <v>0.8773672424304264</v>
+        <v>0.8744677208212333</v>
       </c>
       <c r="J2">
-        <v>0.8773672424304263</v>
+        <v>0.8744677208212334</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>34.52052333333334</v>
+        <v>18.43631966666667</v>
       </c>
       <c r="N2">
-        <v>103.56157</v>
+        <v>55.308959</v>
       </c>
       <c r="O2">
-        <v>0.7684334662422597</v>
+        <v>0.6034704469962782</v>
       </c>
       <c r="P2">
-        <v>0.7684334662422597</v>
+        <v>0.6034704469962781</v>
       </c>
       <c r="Q2">
-        <v>332.4078079368823</v>
+        <v>138.9840763117727</v>
       </c>
       <c r="R2">
-        <v>2991.67027143194</v>
+        <v>1250.856686805954</v>
       </c>
       <c r="S2">
-        <v>0.6741983512682256</v>
+        <v>0.5277154263678062</v>
       </c>
       <c r="T2">
-        <v>0.6741983512682255</v>
+        <v>0.5277154263678062</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>9.629280666666666</v>
+        <v>7.538602</v>
       </c>
       <c r="H3">
-        <v>28.887842</v>
+        <v>22.615806</v>
       </c>
       <c r="I3">
-        <v>0.8773672424304264</v>
+        <v>0.8744677208212333</v>
       </c>
       <c r="J3">
-        <v>0.8773672424304263</v>
+        <v>0.8744677208212334</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>16.042855</v>
       </c>
       <c r="O3">
-        <v>0.1190390091234805</v>
+        <v>0.1750419652256785</v>
       </c>
       <c r="P3">
-        <v>0.1190390091234805</v>
+        <v>0.1750419652256784</v>
       </c>
       <c r="Q3">
-        <v>51.49371782987888</v>
+        <v>40.31356626290333</v>
       </c>
       <c r="R3">
-        <v>463.44346046891</v>
+        <v>362.82209636613</v>
       </c>
       <c r="S3">
-        <v>0.1044409271763185</v>
+        <v>0.1530685483789686</v>
       </c>
       <c r="T3">
-        <v>0.1044409271763185</v>
+        <v>0.1530685483789686</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>9.629280666666666</v>
+        <v>7.538602</v>
       </c>
       <c r="H4">
-        <v>28.887842</v>
+        <v>22.615806</v>
       </c>
       <c r="I4">
-        <v>0.8773672424304264</v>
+        <v>0.8744677208212333</v>
       </c>
       <c r="J4">
-        <v>0.8773672424304263</v>
+        <v>0.8744677208212334</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.055101333333334</v>
+        <v>6.766555</v>
       </c>
       <c r="N4">
-        <v>15.165304</v>
+        <v>20.299665</v>
       </c>
       <c r="O4">
-        <v>0.1125275246342597</v>
+        <v>0.2214875877780434</v>
       </c>
       <c r="P4">
-        <v>0.1125275246342597</v>
+        <v>0.2214875877780434</v>
       </c>
       <c r="Q4">
-        <v>48.67698953710756</v>
+        <v>51.01036505611</v>
       </c>
       <c r="R4">
-        <v>438.092905833968</v>
+        <v>459.09328550499</v>
       </c>
       <c r="S4">
-        <v>0.09872796398588228</v>
+        <v>0.1936837460744585</v>
       </c>
       <c r="T4">
-        <v>0.09872796398588227</v>
+        <v>0.1936837460744585</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>0.853175</v>
       </c>
       <c r="I5">
-        <v>0.02591220891683702</v>
+        <v>0.03298905189192265</v>
       </c>
       <c r="J5">
-        <v>0.02591220891683702</v>
+        <v>0.03298905189192266</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>34.52052333333334</v>
+        <v>18.43631966666667</v>
       </c>
       <c r="N5">
-        <v>103.56157</v>
+        <v>55.308959</v>
       </c>
       <c r="O5">
-        <v>0.7684334662422597</v>
+        <v>0.6034704469962782</v>
       </c>
       <c r="P5">
-        <v>0.7684334662422597</v>
+        <v>0.6034704469962781</v>
       </c>
       <c r="Q5">
-        <v>9.817349164972223</v>
+        <v>5.243135677202777</v>
       </c>
       <c r="R5">
-        <v>88.35614248475001</v>
+        <v>47.188221094825</v>
       </c>
       <c r="S5">
-        <v>0.01991180851595866</v>
+        <v>0.01990791789120198</v>
       </c>
       <c r="T5">
-        <v>0.01991180851595866</v>
+        <v>0.01990791789120198</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>0.853175</v>
       </c>
       <c r="I6">
-        <v>0.02591220891683702</v>
+        <v>0.03298905189192265</v>
       </c>
       <c r="J6">
-        <v>0.02591220891683702</v>
+        <v>0.03298905189192266</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>16.042855</v>
       </c>
       <c r="O6">
-        <v>0.1190390091234805</v>
+        <v>0.1750419652256785</v>
       </c>
       <c r="P6">
-        <v>0.1190390091234805</v>
+        <v>0.1750419652256784</v>
       </c>
       <c r="Q6">
         <v>1.520818090513889</v>
@@ -818,10 +818,10 @@
         <v>13.687362814625</v>
       </c>
       <c r="S6">
-        <v>0.003084563673660896</v>
+        <v>0.005774468474094028</v>
       </c>
       <c r="T6">
-        <v>0.003084563673660895</v>
+        <v>0.005774468474094028</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>0.853175</v>
       </c>
       <c r="I7">
-        <v>0.02591220891683702</v>
+        <v>0.03298905189192265</v>
       </c>
       <c r="J7">
-        <v>0.02591220891683702</v>
+        <v>0.03298905189192266</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>5.055101333333334</v>
+        <v>6.766555</v>
       </c>
       <c r="N7">
-        <v>15.165304</v>
+        <v>20.299665</v>
       </c>
       <c r="O7">
-        <v>0.1125275246342597</v>
+        <v>0.2214875877780434</v>
       </c>
       <c r="P7">
-        <v>0.1125275246342597</v>
+        <v>0.2214875877780434</v>
       </c>
       <c r="Q7">
-        <v>1.437628693355556</v>
+        <v>1.924351854041667</v>
       </c>
       <c r="R7">
-        <v>12.9386582402</v>
+        <v>17.319166686375</v>
       </c>
       <c r="S7">
-        <v>0.002915836727217461</v>
+        <v>0.007306665526626647</v>
       </c>
       <c r="T7">
-        <v>0.002915836727217461</v>
+        <v>0.007306665526626647</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.061527333333333</v>
+        <v>0.7977956666666666</v>
       </c>
       <c r="H8">
-        <v>3.184582</v>
+        <v>2.393387</v>
       </c>
       <c r="I8">
-        <v>0.09672054865273674</v>
+        <v>0.09254322728684393</v>
       </c>
       <c r="J8">
-        <v>0.09672054865273673</v>
+        <v>0.09254322728684394</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>34.52052333333334</v>
+        <v>18.43631966666667</v>
       </c>
       <c r="N8">
-        <v>103.56157</v>
+        <v>55.308959</v>
       </c>
       <c r="O8">
-        <v>0.7684334662422597</v>
+        <v>0.6034704469962782</v>
       </c>
       <c r="P8">
-        <v>0.7684334662422597</v>
+        <v>0.6034704469962781</v>
       </c>
       <c r="Q8">
-        <v>36.64447907930445</v>
+        <v>14.70841593934811</v>
       </c>
       <c r="R8">
-        <v>329.80031171374</v>
+        <v>132.375743454133</v>
       </c>
       <c r="S8">
-        <v>0.07432330645807562</v>
+        <v>0.05584710273726987</v>
       </c>
       <c r="T8">
-        <v>0.07432330645807561</v>
+        <v>0.05584710273726987</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.061527333333333</v>
+        <v>0.7977956666666666</v>
       </c>
       <c r="H9">
-        <v>3.184582</v>
+        <v>2.393387</v>
       </c>
       <c r="I9">
-        <v>0.09672054865273674</v>
+        <v>0.09254322728684393</v>
       </c>
       <c r="J9">
-        <v>0.09672054865273673</v>
+        <v>0.09254322728684394</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>16.042855</v>
       </c>
       <c r="O9">
-        <v>0.1190390091234805</v>
+        <v>0.1750419652256785</v>
       </c>
       <c r="P9">
-        <v>0.1190390091234805</v>
+        <v>0.1750419652256784</v>
       </c>
       <c r="Q9">
-        <v>5.676643029067777</v>
+        <v>4.266306733320555</v>
       </c>
       <c r="R9">
-        <v>51.08978726160999</v>
+        <v>38.39676059988499</v>
       </c>
       <c r="S9">
-        <v>0.01151351827350117</v>
+        <v>0.01619894837261579</v>
       </c>
       <c r="T9">
-        <v>0.01151351827350117</v>
+        <v>0.01619894837261579</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.061527333333333</v>
+        <v>0.7977956666666666</v>
       </c>
       <c r="H10">
-        <v>3.184582</v>
+        <v>2.393387</v>
       </c>
       <c r="I10">
-        <v>0.09672054865273674</v>
+        <v>0.09254322728684393</v>
       </c>
       <c r="J10">
-        <v>0.09672054865273673</v>
+        <v>0.09254322728684394</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.055101333333334</v>
+        <v>6.766555</v>
       </c>
       <c r="N10">
-        <v>15.165304</v>
+        <v>20.299665</v>
       </c>
       <c r="O10">
-        <v>0.1125275246342597</v>
+        <v>0.2214875877780434</v>
       </c>
       <c r="P10">
-        <v>0.1125275246342597</v>
+        <v>0.2214875877780434</v>
       </c>
       <c r="Q10">
-        <v>5.366128238103111</v>
+        <v>5.398328257261666</v>
       </c>
       <c r="R10">
-        <v>48.295154142928</v>
+        <v>48.584954315355</v>
       </c>
       <c r="S10">
-        <v>0.01088372392115994</v>
+        <v>0.02049717617695827</v>
       </c>
       <c r="T10">
-        <v>0.01088372392115994</v>
+        <v>0.02049717617695827</v>
       </c>
     </row>
   </sheetData>
